--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-08.xlsx
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>ZINCODERM TOPICAL CREAM 50 GM</t>
   </si>
   <si>
     <t xml:space="preserve">بادي سبلاش يارا </t>
@@ -2944,13 +2947,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2976,7 +2979,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2996,13 +2999,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3022,17 +3025,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3040,7 +3043,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3048,17 +3051,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3066,7 +3069,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3074,17 +3077,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3100,17 +3103,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3118,7 +3121,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3126,7 +3129,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -3136,7 +3139,7 @@
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3152,13 +3155,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3178,17 +3181,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3204,17 +3207,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3222,7 +3225,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3230,13 +3233,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3256,13 +3259,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3282,17 +3285,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3300,7 +3303,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3308,17 +3311,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3334,51 +3337,77 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="95" ht="26.25" customHeight="1">
-      <c r="K95" s="10">
-        <v>6568.7299999999996</v>
-      </c>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="11">
+    <row r="95" ht="25.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>92</v>
+      </c>
+      <c t="s" r="B95" s="7">
+        <v>130</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c t="s" r="H95" s="8">
         <v>131</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c t="s" r="F96" s="12">
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9">
+        <v>45</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c t="s" r="N95" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="K96" s="10">
+        <v>6638.7299999999996</v>
+      </c>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="11">
         <v>132</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-      <c t="s" r="I96" s="14">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c t="s" r="F97" s="12">
         <v>133</v>
       </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13"/>
+      <c t="s" r="I97" s="14">
+        <v>134</v>
+      </c>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="284">
+  <mergeCells count="287">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3659,10 +3688,13 @@
     <mergeCell ref="B94:G94"/>
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="I96:N96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="K96:N96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="I97:N97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
